--- a/games/games_one.xlsx
+++ b/games/games_one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73DDF04D-8617-4794-AA16-CA35C920ACDB}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80430621-4E1C-45E2-B8EA-41FE2CACC965}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -96,19 +96,10 @@
     <t>solution</t>
   </si>
   <si>
-    <t>6+</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
     <t>geofenceRadius</t>
   </si>
   <si>
     <t>bp1-titka</t>
-  </si>
-  <si>
-    <t>Mysti és a BudapestOne Irodaház Rejtélye</t>
   </si>
   <si>
     <t>47.46495523756118</t>
@@ -227,6 +218,15 @@
   </si>
   <si>
     <t>Számold meg, hány lábon állnak az esővédő fedelek összesen.</t>
+  </si>
+  <si>
+    <t>14+</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>BudapestOne az üvegfalak titka</t>
   </si>
 </sst>
 </file>
@@ -517,9 +517,9 @@
   </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -565,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -578,37 +578,37 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2">
         <v>10</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
@@ -653,7 +653,7 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
@@ -685,7 +685,7 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
@@ -705,31 +705,31 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2">
         <v>16</v>
@@ -737,31 +737,31 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2">
         <v>53</v>
@@ -769,31 +769,31 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2">
         <v>3</v>
@@ -801,31 +801,31 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J5" s="2">
         <v>52</v>
@@ -833,31 +833,31 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2">
         <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J6" s="2">
         <v>15</v>

--- a/games/games_one.xlsx
+++ b/games/games_one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80430621-4E1C-45E2-B8EA-41FE2CACC965}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E915619-A8A7-4428-8511-2D53BE4352B7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,38 @@
     <t>19.016727269054062</t>
   </si>
   <si>
-    <t>Az üvegfalak titka
+    <t>A városi kód
+Miután mind az öt számot megfejtetted, valami megváltozott. A tükörfalakban halvány fény futott végig, mintha az épület „felismerte” volna, hogy a kódot feltörték.
+A telefonod új üzenetet jelzett:
+„Jól dolgoztál, nyomozó. Ez csak az első állomás volt.”
+A város tele van titkokkal — és te most már tudod, hol kell keresni őket.</t>
+  </si>
+  <si>
+    <t>A csatornafedél tetején található számjegyek összege a kulcs az első nyomhoz.</t>
+  </si>
+  <si>
+    <t>Számold meg, hány teljes négyzet alakú lyuk található a rövidebbik oldalon. A válasz a második kód része lesz.</t>
+  </si>
+  <si>
+    <t>Add meg a biciklitárolók számát osztva a kőlapok számával, amin állnak. Ez a harmadik nyom száma.</t>
+  </si>
+  <si>
+    <t>Számold meg, hány deszkából áll a pad. Ez lesz a negyedik szám a rejtvényben.</t>
+  </si>
+  <si>
+    <t>Számold meg, hány lábon állnak az esővédő fedelek összesen.</t>
+  </si>
+  <si>
+    <t>14+</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>BudapestOne az üvegfalak titka</t>
+  </si>
+  <si>
+    <t>Az üvegfalak titka. 
 Egy szürke reggelen egy rejtélyes üzenet érkezett a telefonodra:
 „Ha megfejted az öt nyomot, megtalálod a kulcsot Budapest ONE titkához.”
 A helyszín egy hatalmas, modern üvegépület volt, amelynek tükörfalai a város minden mozdulatát visszaverték.
@@ -176,57 +207,26 @@
 A feladatod világos volt: fejtsd meg az öt városi rejtélyt, és derítsd ki, mit rejtenek az üvegfalak.</t>
   </si>
   <si>
-    <t>A városi kód
-Miután mind az öt számot megfejtetted, valami megváltozott. A tükörfalakban halvány fény futott végig, mintha az épület „felismerte” volna, hogy a kódot feltörték.
-A telefonod új üzenetet jelzett:
-„Jól dolgoztál, nyomozó. Ez csak az első állomás volt.”
-A város tele van titkokkal — és te most már tudod, hol kell keresni őket.</t>
-  </si>
-  <si>
-    <t>Az udvari menedék (belső udvar)
+    <t>A biciklitárolók rejtélye (déli sarok).
+A déli oldalon fekete fém biciklitárolók álltak, egymás mellett, mintha katonás rendben őriznék a bejáratot. Alattuk világosszürke kőlapok sorakoztak.
+Valaki gondosan tervezte meg az elrendezést — és a pontos arány sem lehet véletlen.</t>
+  </si>
+  <si>
+    <t>A szellőzőrács titka (déli sarok).
+A következő saroknál halk zümmögést hallottál: a földbe süllyesztett szellőzőrács dolgozott csendben. A rács szabályos négyzet alakú nyílásokból állt, de valahogy túl tökéletesen rendezve.</t>
+  </si>
+  <si>
+    <t>A csatornafedél üzenete (nyugati sarok).
+A járda szélén egy nehéz, fémes csatornafedél csillant meg a napfényben. Közelebb hajoltál, és észrevetted, hogy a felületén számjegyek sorakoznak szabályos mintázatban — mintha valaki direkt hagyta volna ott őket.</t>
+  </si>
+  <si>
+    <t>A pad titka (keleti sarok).
+A keleti oldalon egy modern, napfényben melegedő fa pad várt. A deszkák tökéletesen illeszkedtek egymáshoz, mintha maga az asztalos is rejtett üzenetet hagyott volna a munkájában.</t>
+  </si>
+  <si>
+    <t>Az udvari menedék (belső udvar).
 Végül az épület belső udvarába értél, ahol fémoszlopokon álló esővédő tetők húzódtak. Minden láb pontosan a helyén, mintha katonás rendben őriznék a titkot.
 A középen egy villanás figyelmeztetett: ez az utolsó jel.</t>
-  </si>
-  <si>
-    <t>A pad titka (keleti sarok)
-A keleti oldalon egy modern, napfényben melegedő fa pad várt. A deszkák tökéletesen illeszkedtek egymáshoz, mintha maga az asztalos is rejtett üzenetet hagyott volna a munkájában.</t>
-  </si>
-  <si>
-    <t>A biciklitárolók rejtélye (déli sarok)
-A déli oldalon fekete fém biciklitárolók álltak, egymás mellett, mintha katonás rendben őriznék a bejáratot. Alattuk világosszürke kőlapok sorakoztak.
-Valaki gondosan tervezte meg az elrendezést — és a pontos arány sem lehet véletlen.</t>
-  </si>
-  <si>
-    <t>A szellőzőrács titka (északi sarok)
-A következő saroknál halk zümmögést hallottál: a földbe süllyesztett szellőzőrács dolgozott csendben. A rács szabályos négyzet alakú nyílásokból állt, de valahogy túl tökéletesen rendezve.</t>
-  </si>
-  <si>
-    <t>A csatornafedél üzenete (nyugati sarok)
-A járda szélén egy nehéz, fémes csatornafedél csillant meg a napfényben. Közelebb hajoltál, és észrevetted, hogy a felületén számjegyek sorakoznak szabályos mintázatban — mintha valaki direkt hagyta volna ott őket.</t>
-  </si>
-  <si>
-    <t>A csatornafedél tetején található számjegyek összege a kulcs az első nyomhoz.</t>
-  </si>
-  <si>
-    <t>Számold meg, hány teljes négyzet alakú lyuk található a rövidebbik oldalon. A válasz a második kód része lesz.</t>
-  </si>
-  <si>
-    <t>Add meg a biciklitárolók számát osztva a kőlapok számával, amin állnak. Ez a harmadik nyom száma.</t>
-  </si>
-  <si>
-    <t>Számold meg, hány deszkából áll a pad. Ez lesz a negyedik szám a rejtvényben.</t>
-  </si>
-  <si>
-    <t>Számold meg, hány lábon állnak az esővédő fedelek összesen.</t>
-  </si>
-  <si>
-    <t>14+</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>BudapestOne az üvegfalak titka</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -581,19 +581,19 @@
         <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>21</v>
@@ -605,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>38</v>
@@ -655,7 +655,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -720,10 +720,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>25</v>
@@ -752,10 +752,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>29</v>
@@ -784,10 +784,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>31</v>
@@ -816,10 +816,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>33</v>
@@ -848,10 +848,10 @@
         <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>36</v>

--- a/games/games_one.xlsx
+++ b/games/games_one.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E915619-A8A7-4428-8511-2D53BE4352B7}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{986E9EEC-8B3C-4F87-B478-F981DEAB9244}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -227,6 +227,12 @@
     <t>Az udvari menedék (belső udvar).
 Végül az épület belső udvarába értél, ahol fémoszlopokon álló esővédő tetők húzódtak. Minden láb pontosan a helyén, mintha katonás rendben őriznék a titkot.
 A középen egy villanás figyelmeztetett: ez az utolsó jel.</t>
+  </si>
+  <si>
+    <t>explore</t>
+  </si>
+  <si>
+    <t>bp1-titka-explore</t>
   </si>
 </sst>
 </file>
@@ -517,9 +523,9 @@
   </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -612,13 +618,39 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="F3" s="5"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -651,11 +683,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD6"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -863,6 +895,166 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="2">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/games/games_one.xlsx
+++ b/games/games_one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{986E9EEC-8B3C-4F87-B478-F981DEAB9244}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53855B62-C695-444A-B9F5-C0A82460631E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -233,6 +233,60 @@
   </si>
   <si>
     <t>bp1-titka-explore</t>
+  </si>
+  <si>
+    <t>bp1-explore</t>
+  </si>
+  <si>
+    <t>BP One Teszt</t>
+  </si>
+  <si>
+    <t>Teszt inside</t>
+  </si>
+  <si>
+    <t>vége</t>
+  </si>
+  <si>
+    <t>47.464903</t>
+  </si>
+  <si>
+    <t>19.015476</t>
+  </si>
+  <si>
+    <t>47.464918</t>
+  </si>
+  <si>
+    <t>19.015706</t>
+  </si>
+  <si>
+    <t>47.464729</t>
+  </si>
+  <si>
+    <t>19.015539</t>
+  </si>
+  <si>
+    <t>Szöveg 2</t>
+  </si>
+  <si>
+    <t>Szöveg 1</t>
+  </si>
+  <si>
+    <t>Szöveg 3</t>
+  </si>
+  <si>
+    <t>1+1</t>
+  </si>
+  <si>
+    <t>1+2</t>
+  </si>
+  <si>
+    <t>1+3</t>
+  </si>
+  <si>
+    <t>disableSolution</t>
+  </si>
+  <si>
+    <t>Gondolkodj</t>
   </si>
 </sst>
 </file>
@@ -525,7 +579,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -653,13 +707,30 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
@@ -683,11 +754,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -700,10 +771,11 @@
     <col min="7" max="8" width="12.6640625" style="2"/>
     <col min="9" max="9" width="41.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="25" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="12.6640625" style="2"/>
+    <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.8">
+    <row r="1" spans="1:11" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -734,8 +806,11 @@
       <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -767,7 +842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -799,7 +874,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -831,7 +906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -863,7 +938,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -895,7 +970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>59</v>
       </c>
@@ -927,7 +1002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>59</v>
       </c>
@@ -959,7 +1034,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
@@ -991,7 +1066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>59</v>
       </c>
@@ -1023,7 +1098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>59</v>
       </c>
@@ -1053,6 +1128,102 @@
       </c>
       <c r="J11" s="2">
         <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="2">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="2">
+        <v>4</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/games/games_one.xlsx
+++ b/games/games_one.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisztian.topler\OneDrive - Vodafone Magyarország Zrt\!Private\MystiGo\Weboldal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53855B62-C695-444A-B9F5-C0A82460631E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF7ECE2-1C3E-47BC-AE1E-E7A78F7B5074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -577,9 +577,9 @@
   </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -725,6 +725,15 @@
       <c r="F4" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
       <c r="J4" s="3" t="s">
         <v>63</v>
       </c>
@@ -756,9 +765,9 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/games/games_one.xlsx
+++ b/games/games_one.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisztian.topler\OneDrive - Vodafone Magyarország Zrt\!Private\MystiGo\Weboldal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF7ECE2-1C3E-47BC-AE1E-E7A78F7B5074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -767,7 +767,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12:D12"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/games/games_one.xlsx
+++ b/games/games_one.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisztian.topler\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF7ECE2-1C3E-47BC-AE1E-E7A78F7B5074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35180774-5BB8-425E-9031-CD0AEF853398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>Gondolkodj</t>
+  </si>
+  <si>
+    <t>47.46490300000000</t>
+  </si>
+  <si>
+    <t>19.01547600000000</t>
   </si>
 </sst>
 </file>
@@ -579,7 +585,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -726,10 +732,10 @@
         <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2">
         <v>10</v>
@@ -766,8 +772,8 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
